--- a/data/trans_orig/CONS_PSICO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_PSICO-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en País Vasco</t>
+          <t>Consumo de psicofármacos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en Andalucia</t>
+          <t>Consumo de psicofármacos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3768,7 +3768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en C.Valenciana</t>
+          <t>Consumo de psicofármacos en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en Barcelona</t>
+          <t>Consumo de psicofármacos en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_PSICO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_PSICO-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13198</t>
+          <t>11432</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10387</t>
+          <t>8953</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16546</t>
+          <t>14078</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>39239</t>
+          <t>37308</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34503</t>
+          <t>33465</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43849</t>
+          <t>42104</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>52437</t>
+          <t>48740</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>46924</t>
+          <t>43731</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>57969</t>
+          <t>54030</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>26,49%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74866</t>
+          <t>71110</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71518</t>
+          <t>68464</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77677</t>
+          <t>73589</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,01%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>82,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>88505</t>
+          <t>84144</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>83895</t>
+          <t>79348</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>93241</t>
+          <t>87987</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>65,67%</t>
+          <t>65,33%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>72,45%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>163372</t>
+          <t>155254</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>157840</t>
+          <t>149964</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>168885</t>
+          <t>160263</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>76,11%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>73,14%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>78,26%</t>
+          <t>78,56%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41664</t>
+          <t>41262</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36239</t>
+          <t>36063</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47365</t>
+          <t>46689</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66269</t>
+          <t>66341</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>59626</t>
+          <t>59829</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>73418</t>
+          <t>73093</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>107933</t>
+          <t>107603</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>99934</t>
+          <t>98834</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>116377</t>
+          <t>116109</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>12,82%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>411827</t>
+          <t>420417</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>406126</t>
+          <t>414990</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>417252</t>
+          <t>425616</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>365533</t>
+          <t>378016</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>358384</t>
+          <t>371264</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>372176</t>
+          <t>384528</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>84,65%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,0%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>777360</t>
+          <t>798432</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>768916</t>
+          <t>789926</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>785359</t>
+          <t>807201</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>89,09%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9372</t>
+          <t>11044</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7136</t>
+          <t>8323</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12278</t>
+          <t>14302</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,67 +1457,67 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14779</t>
+          <t>17675</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11776</t>
+          <t>14375</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18016</t>
+          <t>21537</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>28719</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>24454</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>33593</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>6,06%</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>9,28%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>24151</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>20338</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>28503</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>142253</t>
+          <t>164517</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>139347</t>
+          <t>161259</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>144489</t>
+          <t>167238</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,67 +1570,67 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>179458</t>
+          <t>210319</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>176221</t>
+          <t>206457</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>182461</t>
+          <t>213619</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
+          <t>93,7%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>374836</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>369962</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>379101</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>92,88%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>91,68%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
           <t>93,94%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>1952</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>321712</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>317360</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>325525</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>93,02%</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="inlineStr">
-        <is>
-          <t>91,76%</t>
-        </is>
-      </c>
-      <c r="W11" s="2" t="inlineStr">
-        <is>
-          <t>94,12%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64234</t>
+          <t>63738</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57450</t>
+          <t>57016</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>71331</t>
+          <t>70733</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>120287</t>
+          <t>121324</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>110962</t>
+          <t>113341</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>129340</t>
+          <t>130388</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>184521</t>
+          <t>185062</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>172705</t>
+          <t>174206</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>194872</t>
+          <t>197349</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,04%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>628947</t>
+          <t>656043</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>621850</t>
+          <t>649048</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>635731</t>
+          <t>662765</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>633497</t>
+          <t>672479</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>624444</t>
+          <t>663415</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>642822</t>
+          <t>680462</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>84,04%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>82,84%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>85,28%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1262444</t>
+          <t>1328522</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1252093</t>
+          <t>1316235</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1274260</t>
+          <t>1339378</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>86,96%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
+          <t>88,49%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30741</t>
+          <t>30090</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50415</t>
+          <t>50146</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>126958</t>
+          <t>126094</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>157845</t>
+          <t>157368</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>161780</t>
+          <t>161941</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>201576</t>
+          <t>200320</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>32,18%</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>177392</t>
+          <t>177661</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>197066</t>
+          <t>197717</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,87%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>236915</t>
+          <t>237392</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>267802</t>
+          <t>268666</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>67,84%</t>
+          <t>68,06%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>420991</t>
+          <t>422247</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>460787</t>
+          <t>460626</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>67,82%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>74,01%</t>
+          <t>73,99%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52176</t>
+          <t>53148</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>125553</t>
+          <t>125837</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>108045</t>
+          <t>105030</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>219018</t>
+          <t>219093</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>191453</t>
+          <t>193439</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>331025</t>
+          <t>327167</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1283840</t>
+          <t>1283556</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1357217</t>
+          <t>1356245</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1166793</t>
+          <t>1166718</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1277766</t>
+          <t>1280781</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,2%</t>
+          <t>84,19%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2464179</t>
+          <t>2468037</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2603751</t>
+          <t>2601765</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>93,08%</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23225</t>
+          <t>23707</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44930</t>
+          <t>45839</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30489</t>
+          <t>29002</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50632</t>
+          <t>49085</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>58623</t>
+          <t>59637</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>87880</t>
+          <t>87792</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,72%</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>414871</t>
+          <t>413962</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>436576</t>
+          <t>436094</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>90,03%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>392742</t>
+          <t>394289</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>412885</t>
+          <t>414372</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>88,93%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>815295</t>
+          <t>815383</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>844552</t>
+          <t>843538</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>93,4%</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>114912</t>
+          <t>112068</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>202475</t>
+          <t>202048</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>264335</t>
+          <t>261136</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>410640</t>
+          <t>404852</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>397196</t>
+          <t>419819</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>587428</t>
+          <t>586837</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,58%</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1894526</t>
+          <t>1894953</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1982089</t>
+          <t>1984933</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,34%</t>
+          <t>90,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1813305</t>
+          <t>1819093</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1959610</t>
+          <t>1962809</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3733518</t>
+          <t>3734109</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3923750</t>
+          <t>3901127</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>86,42%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>90,28%</t>
         </is>
       </c>
     </row>
@@ -5574,12 +5574,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12513</t>
+          <t>12944</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28438</t>
+          <t>28942</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>41837</t>
+          <t>42044</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62139</t>
+          <t>62790</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>52,58%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5644,12 +5644,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>57577</t>
+          <t>57692</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>84717</t>
+          <t>84024</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>38,55%</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70117</t>
+          <t>69613</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86042</t>
+          <t>85611</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,15%</t>
+          <t>70,63%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5722,12 +5722,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>57278</t>
+          <t>56627</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77580</t>
+          <t>77373</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>47,42%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>64,97%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>133255</t>
+          <t>133948</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>160395</t>
+          <t>160280</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5772,12 +5772,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>61,13%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>73,53%</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37507</t>
+          <t>37736</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56263</t>
+          <t>55555</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5932,12 +5932,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72526</t>
+          <t>70193</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92920</t>
+          <t>93776</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>113730</t>
+          <t>115484</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>142350</t>
+          <t>144288</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>20,29%</t>
         </is>
       </c>
     </row>
@@ -6030,12 +6030,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>300625</t>
+          <t>301333</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>319381</t>
+          <t>319152</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>84,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,49%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>261358</t>
+          <t>260502</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>281752</t>
+          <t>284085</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>79,53%</t>
+          <t>80,19%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>568816</t>
+          <t>566878</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>597436</t>
+          <t>595682</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>79,71%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>83,76%</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17300</t>
+          <t>17243</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29121</t>
+          <t>29983</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38932</t>
+          <t>38225</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>56252</t>
+          <t>55308</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>60820</t>
+          <t>59420</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>80496</t>
+          <t>79659</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>15,7%</t>
         </is>
       </c>
     </row>
@@ -6373,12 +6373,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>195489</t>
+          <t>194627</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>207310</t>
+          <t>207367</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,03%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>226430</t>
+          <t>227374</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>243750</t>
+          <t>244457</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>80,1%</t>
+          <t>80,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>86,48%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>426797</t>
+          <t>427634</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>446473</t>
+          <t>447873</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>84,13%</t>
+          <t>84,3%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>88,29%</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77419</t>
+          <t>76519</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>103036</t>
+          <t>103897</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>162762</t>
+          <t>163178</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>198136</t>
+          <t>198599</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>248327</t>
+          <t>245520</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>293718</t>
+          <t>292202</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -6716,12 +6716,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>577017</t>
+          <t>576156</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>602634</t>
+          <t>603534</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,85%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>558241</t>
+          <t>557778</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>593615</t>
+          <t>593199</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>78,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1142713</t>
+          <t>1144229</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1188104</t>
+          <t>1190911</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>79,66%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>82,91%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_PSICO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_PSICO-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de psicofármacos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11432</t>
+          <t>43265</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8953</t>
+          <t>32430</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14078</t>
+          <t>54150</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>245</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37308</t>
+          <t>150326</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33465</t>
+          <t>134654</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>42104</t>
+          <t>166412</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>301</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>48740</t>
+          <t>193591</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>43731</t>
+          <t>174698</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>54030</t>
+          <t>211884</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>30,83%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71110</t>
+          <t>211632</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>68464</t>
+          <t>200747</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73589</t>
+          <t>222467</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,94%</t>
+          <t>78,76%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>449</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84144</t>
+          <t>281940</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79348</t>
+          <t>265854</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>87987</t>
+          <t>297612</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>65,33%</t>
+          <t>61,5%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>72,45%</t>
+          <t>68,85%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>682</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>155254</t>
+          <t>493572</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>149964</t>
+          <t>475279</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>160263</t>
+          <t>512465</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>71,83%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>73,51%</t>
+          <t>69,17%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>74,58%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>983</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41262</t>
+          <t>104606</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36063</t>
+          <t>85272</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46689</t>
+          <t>126631</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>282</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66341</t>
+          <t>191756</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>59829</t>
+          <t>170700</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>73093</t>
+          <t>216081</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>390</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>107603</t>
+          <t>296362</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>98834</t>
+          <t>268424</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>116109</t>
+          <t>330901</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>12,93%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>420417</t>
+          <t>1183081</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>414990</t>
+          <t>1161056</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>425616</t>
+          <t>1202415</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>1357</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>378016</t>
+          <t>1078985</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>371264</t>
+          <t>1054660</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>384528</t>
+          <t>1100041</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>84,91%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>83,0%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>86,54%</t>
+          <t>86,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4505</t>
+          <t>2360</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>798432</t>
+          <t>2262066</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>789926</t>
+          <t>2227527</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>807201</t>
+          <t>2290004</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,18%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>89,09%</t>
+          <t>89,51%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11044</t>
+          <t>34462</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8323</t>
+          <t>24810</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14302</t>
+          <t>47840</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17675</t>
+          <t>43880</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14375</t>
+          <t>33775</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21537</t>
+          <t>55772</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>104</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>28719</t>
+          <t>78341</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>24454</t>
+          <t>65376</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>33593</t>
+          <t>95324</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>9,48%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>164517</t>
+          <t>475417</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>161259</t>
+          <t>462039</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>167238</t>
+          <t>485069</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>601</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>210319</t>
+          <t>452026</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>206457</t>
+          <t>440134</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>213619</t>
+          <t>462131</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>374836</t>
+          <t>927445</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>369962</t>
+          <t>910462</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>379101</t>
+          <t>940410</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>93,5%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63738</t>
+          <t>182333</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57016</t>
+          <t>159750</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>70733</t>
+          <t>209320</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>592</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>121324</t>
+          <t>385961</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>113341</t>
+          <t>358418</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>130388</t>
+          <t>417176</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>795</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>185062</t>
+          <t>568294</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>174206</t>
+          <t>532370</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>197349</t>
+          <t>612109</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>14,4%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>1684</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>656043</t>
+          <t>1870131</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>649048</t>
+          <t>1843144</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>662765</t>
+          <t>1892714</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3724</t>
+          <t>2407</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>672479</t>
+          <t>1812952</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>663415</t>
+          <t>1781737</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>680462</t>
+          <t>1840495</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>82,45%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>83,57%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7403</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1328522</t>
+          <t>3683082</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1316235</t>
+          <t>3639267</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1339378</t>
+          <t>3719006</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,96%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>88,49%</t>
+          <t>87,48%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>2999</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4886</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de psicofármacos en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2342,107 +2342,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>40001</t>
+          <t>19511</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30090</t>
+          <t>12944</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50146</t>
+          <t>28942</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>140941</t>
+          <t>51065</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>126094</t>
+          <t>42044</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>157368</t>
+          <t>62790</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>52,58%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>154</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>180942</t>
+          <t>70576</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>161941</t>
+          <t>57692</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>200320</t>
+          <t>84024</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>38,55%</t>
         </is>
       </c>
     </row>
@@ -2455,107 +2455,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>187806</t>
+          <t>79044</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>177661</t>
+          <t>69613</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>197717</t>
+          <t>85611</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>80,2%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,99%</t>
+          <t>70,63%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,79%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>253819</t>
+          <t>68352</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>237392</t>
+          <t>56627</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>268666</t>
+          <t>77373</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>64,3%</t>
+          <t>57,24%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>47,42%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>336</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>441625</t>
+          <t>147396</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>422247</t>
+          <t>133948</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>460626</t>
+          <t>160280</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>70,94%</t>
+          <t>67,62%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>67,82%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>73,99%</t>
+          <t>73,53%</t>
         </is>
       </c>
     </row>
@@ -2568,22 +2568,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2603,22 +2603,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>295</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>119417</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>119417</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>119417</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>490</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>217972</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>217972</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>217972</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2685,107 +2685,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95033</t>
+          <t>46653</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53148</t>
+          <t>37736</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>125837</t>
+          <t>55555</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>189</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>174597</t>
+          <t>82255</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>105030</t>
+          <t>70193</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>219093</t>
+          <t>93776</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>294</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>269629</t>
+          <t>128908</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>193439</t>
+          <t>115484</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>327167</t>
+          <t>144288</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>20,29%</t>
         </is>
       </c>
     </row>
@@ -2798,107 +2798,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>690</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1314360</t>
+          <t>310235</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1283556</t>
+          <t>301333</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1356245</t>
+          <t>319152</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>84,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>619</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1211214</t>
+          <t>272023</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1166718</t>
+          <t>260502</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1280781</t>
+          <t>284085</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,19%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>80,19%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2525575</t>
+          <t>582258</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2468037</t>
+          <t>566878</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2601765</t>
+          <t>595682</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>81,87%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>79,71%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>83,76%</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>808</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354278</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354278</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354278</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2981,22 +2981,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>711166</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>711166</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>711166</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3028,107 +3028,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33017</t>
+          <t>22569</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23707</t>
+          <t>17243</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45839</t>
+          <t>29983</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>38754</t>
+          <t>46885</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29002</t>
+          <t>38225</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>49085</t>
+          <t>55308</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>203</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>71771</t>
+          <t>69454</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>59637</t>
+          <t>59420</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>87792</t>
+          <t>79659</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>15,7%</t>
         </is>
       </c>
     </row>
@@ -3141,107 +3141,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>575</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>426784</t>
+          <t>202041</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>413962</t>
+          <t>194627</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>436094</t>
+          <t>207367</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>626</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>404620</t>
+          <t>235797</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>394289</t>
+          <t>227374</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>414372</t>
+          <t>244457</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>83,41%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>88,93%</t>
+          <t>80,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>86,48%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>831404</t>
+          <t>437839</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>815383</t>
+          <t>427634</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>843538</t>
+          <t>447873</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>84,3%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>88,29%</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3289,22 +3289,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>761</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282682</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282682</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282682</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507293</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507293</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507293</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3371,107 +3371,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>168050</t>
+          <t>88733</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>112068</t>
+          <t>76519</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>202048</t>
+          <t>103897</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>434</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>354292</t>
+          <t>180205</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>261136</t>
+          <t>163178</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>404852</t>
+          <t>198599</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>651</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>522343</t>
+          <t>268938</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>419819</t>
+          <t>245520</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>586837</t>
+          <t>292202</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -3484,107 +3484,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1684</t>
+          <t>1416</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1928951</t>
+          <t>591320</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1894953</t>
+          <t>576156</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1984933</t>
+          <t>603534</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2407</t>
+          <t>1430</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1869653</t>
+          <t>576172</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1819093</t>
+          <t>557778</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1962809</t>
+          <t>593199</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>84,07%</t>
+          <t>76,18%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>78,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4091</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3798603</t>
+          <t>1167493</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3734109</t>
+          <t>1144229</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3901127</t>
+          <t>1190911</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>87,91%</t>
+          <t>81,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>79,66%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>82,91%</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>680053</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>680053</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>680053</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>756377</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>756377</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>756377</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3667,22 +3667,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>1436431</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>1436431</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>1436431</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en Barcelona (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de psicofármacos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5564,107 +5564,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19511</t>
+          <t>11432</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12944</t>
+          <t>8953</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28942</t>
+          <t>14078</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>237</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>51065</t>
+          <t>37308</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>42044</t>
+          <t>33465</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62790</t>
+          <t>42104</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>52,58%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>312</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>70576</t>
+          <t>48740</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>57692</t>
+          <t>43731</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>84024</t>
+          <t>54030</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>26,49%</t>
         </is>
       </c>
     </row>
@@ -5677,107 +5677,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>428</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79044</t>
+          <t>71110</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69613</t>
+          <t>68464</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85611</t>
+          <t>73589</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,2%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>82,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>518</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68352</t>
+          <t>84144</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56627</t>
+          <t>79348</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77373</t>
+          <t>87987</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>47,42%</t>
+          <t>65,33%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>64,79%</t>
+          <t>72,45%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>946</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>147396</t>
+          <t>155254</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>133948</t>
+          <t>149964</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>160280</t>
+          <t>160263</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>76,11%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>61,45%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>78,56%</t>
         </is>
       </c>
     </row>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>119417</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>119417</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>119417</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5860,22 +5860,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>217972</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>217972</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>217972</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5907,107 +5907,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46653</t>
+          <t>41262</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37736</t>
+          <t>36063</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55555</t>
+          <t>46689</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>400</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82255</t>
+          <t>66341</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>70193</t>
+          <t>59829</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93776</t>
+          <t>73093</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>645</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>128908</t>
+          <t>107603</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>115484</t>
+          <t>98834</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>144288</t>
+          <t>116109</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>12,82%</t>
         </is>
       </c>
     </row>
@@ -6020,107 +6020,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>310235</t>
+          <t>420417</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>301333</t>
+          <t>414990</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>319152</t>
+          <t>425616</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,43%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>272023</t>
+          <t>378016</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>260502</t>
+          <t>371264</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>284085</t>
+          <t>384528</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>76,78%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>80,19%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>4505</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>582258</t>
+          <t>798432</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>566878</t>
+          <t>789926</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>595682</t>
+          <t>807201</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>81,87%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>83,76%</t>
+          <t>89,09%</t>
         </is>
       </c>
     </row>
@@ -6133,22 +6133,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6168,22 +6168,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>354278</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>354278</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>354278</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6203,22 +6203,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>711166</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>711166</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>711166</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6250,107 +6250,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22569</t>
+          <t>11044</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17243</t>
+          <t>8323</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29983</t>
+          <t>14302</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46885</t>
+          <t>17675</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38225</t>
+          <t>14375</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>55308</t>
+          <t>21537</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>154</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>69454</t>
+          <t>28719</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>59420</t>
+          <t>24454</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>79659</t>
+          <t>33593</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -6363,107 +6363,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>849</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>202041</t>
+          <t>164517</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>194627</t>
+          <t>161259</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>207367</t>
+          <t>167238</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,65%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>235797</t>
+          <t>210319</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>227374</t>
+          <t>206457</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>244457</t>
+          <t>213619</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,41%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>80,43%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>86,48%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>437839</t>
+          <t>374836</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>427634</t>
+          <t>369962</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>447873</t>
+          <t>379101</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>86,31%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>84,3%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>93,94%</t>
         </is>
       </c>
     </row>
@@ -6476,22 +6476,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6511,22 +6511,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>282682</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>282682</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>282682</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6546,22 +6546,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>507293</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>507293</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>507293</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6593,107 +6593,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88733</t>
+          <t>63738</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76519</t>
+          <t>57016</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>103897</t>
+          <t>70733</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>121324</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>113341</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>130388</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>15,28%</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>434</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>180205</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>163178</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>198599</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>23,82%</t>
-        </is>
-      </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>268938</t>
+          <t>185062</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>245520</t>
+          <t>174206</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>292202</t>
+          <t>197349</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>13,04%</t>
         </is>
       </c>
     </row>
@@ -6706,107 +6706,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>591320</t>
+          <t>656043</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>576156</t>
+          <t>649048</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>603534</t>
+          <t>662765</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>90,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>92,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3724</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>672479</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>663415</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>680462</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>84,72%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>88,75%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1430</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>576172</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>557778</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>593199</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>76,18%</t>
-        </is>
-      </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>78,43%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2846</t>
+          <t>7403</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1167493</t>
+          <t>1328522</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1144229</t>
+          <t>1316235</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1190911</t>
+          <t>1339378</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,28%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>86,96%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>82,91%</t>
+          <t>88,49%</t>
         </is>
       </c>
     </row>
@@ -6819,22 +6819,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>680053</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>680053</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>680053</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>756377</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>756377</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>756377</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6889,22 +6889,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1436431</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1436431</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1436431</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
